--- a/data/codebook_breast_cancer.xlsx
+++ b/data/codebook_breast_cancer.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28914"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Francesca Bravi\Nextcloud\Didattica\DSE - Lab Nutritional Epidemiology\materiali corso\Breast_cancer_group1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unimi2013-my.sharepoint.com/personal/stefano_chiesa3_studenti_unimi_it/Documents/Python/EpidemLab/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="8_{4CBE4CB4-67CF-456F-BA07-0B54D3B8716A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17434" windowHeight="8614" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -3244,7 +3244,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3639,18 +3639,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C537"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L464" sqref="L464"/>
+    <sheetView tabSelected="1" zoomScale="82" workbookViewId="0">
+      <selection activeCell="C176" sqref="C176"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.5703125" style="15" customWidth="1"/>
-    <col min="2" max="2" width="56.140625" style="14" customWidth="1"/>
-    <col min="3" max="3" width="92.85546875" style="14" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.5546875" style="15" customWidth="1"/>
+    <col min="2" max="2" width="56.109375" style="14" customWidth="1"/>
+    <col min="3" max="3" width="92.88671875" style="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.4">
+    <row r="1" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3661,7 +3661,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -3672,14 +3672,14 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
         <v>6</v>
       </c>
@@ -3690,7 +3690,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>9</v>
       </c>
@@ -3701,7 +3701,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>12</v>
       </c>
@@ -3712,7 +3712,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>15</v>
       </c>
@@ -3723,7 +3723,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>18</v>
       </c>
@@ -3734,7 +3734,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="45">
+    <row r="9" spans="1:3" ht="45" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>21</v>
       </c>
@@ -3745,7 +3745,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>24</v>
       </c>
@@ -3756,7 +3756,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>27</v>
       </c>
@@ -3767,7 +3767,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>30</v>
       </c>
@@ -3778,7 +3778,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="30">
+    <row r="13" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>33</v>
       </c>
@@ -3789,7 +3789,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>36</v>
       </c>
@@ -3800,7 +3800,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
         <v>38</v>
       </c>
@@ -3811,7 +3811,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
         <v>40</v>
       </c>
@@ -3822,7 +3822,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
         <v>42</v>
       </c>
@@ -3833,7 +3833,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="30">
+    <row r="18" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
         <v>44</v>
       </c>
@@ -3844,7 +3844,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="30">
+    <row r="19" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
         <v>47</v>
       </c>
@@ -3855,7 +3855,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
         <v>50</v>
       </c>
@@ -3866,7 +3866,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
         <v>53</v>
       </c>
@@ -3877,7 +3877,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
         <v>55</v>
       </c>
@@ -3888,7 +3888,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="30">
+    <row r="23" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
         <v>58</v>
       </c>
@@ -3899,7 +3899,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
         <v>61</v>
       </c>
@@ -3910,14 +3910,14 @@
         <v>63</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
         <v>64</v>
       </c>
       <c r="B25" s="6"/>
       <c r="C25" s="6"/>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
         <v>65</v>
       </c>
@@ -3928,7 +3928,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
         <v>68</v>
       </c>
@@ -3939,7 +3939,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="15.4">
+    <row r="28" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A28" s="10" t="s">
         <v>71</v>
       </c>
@@ -3950,7 +3950,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
         <v>74</v>
       </c>
@@ -3961,7 +3961,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
         <v>77</v>
       </c>
@@ -3972,7 +3972,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="5" t="s">
         <v>79</v>
       </c>
@@ -3983,7 +3983,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="5" t="s">
         <v>81</v>
       </c>
@@ -3994,7 +3994,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="5" t="s">
         <v>83</v>
       </c>
@@ -4005,7 +4005,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="5" t="s">
         <v>85</v>
       </c>
@@ -4016,7 +4016,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="5" t="s">
         <v>87</v>
       </c>
@@ -4027,7 +4027,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="15.4">
+    <row r="36" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A36" s="10" t="s">
         <v>89</v>
       </c>
@@ -4038,7 +4038,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="5" t="s">
         <v>92</v>
       </c>
@@ -4049,7 +4049,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="5" t="s">
         <v>95</v>
       </c>
@@ -4060,7 +4060,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="5" t="s">
         <v>97</v>
       </c>
@@ -4071,7 +4071,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="5" t="s">
         <v>99</v>
       </c>
@@ -4082,7 +4082,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="5" t="s">
         <v>101</v>
       </c>
@@ -4093,7 +4093,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="5" t="s">
         <v>102</v>
       </c>
@@ -4104,7 +4104,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="5" t="s">
         <v>103</v>
       </c>
@@ -4115,7 +4115,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="30">
+    <row r="44" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A44" s="5" t="s">
         <v>104</v>
       </c>
@@ -4126,14 +4126,14 @@
         <v>94</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" s="7" t="s">
         <v>106</v>
       </c>
       <c r="B45" s="6"/>
       <c r="C45" s="6"/>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="5" t="s">
         <v>107</v>
       </c>
@@ -4144,7 +4144,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" s="5" t="s">
         <v>110</v>
       </c>
@@ -4155,7 +4155,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" s="5" t="s">
         <v>113</v>
       </c>
@@ -4166,7 +4166,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" s="5" t="s">
         <v>115</v>
       </c>
@@ -4177,7 +4177,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="5" t="s">
         <v>117</v>
       </c>
@@ -4188,7 +4188,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" s="5" t="s">
         <v>119</v>
       </c>
@@ -4199,7 +4199,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" s="5" t="s">
         <v>121</v>
       </c>
@@ -4210,7 +4210,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" s="5" t="s">
         <v>123</v>
       </c>
@@ -4221,7 +4221,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" s="5" t="s">
         <v>125</v>
       </c>
@@ -4232,7 +4232,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" s="5" t="s">
         <v>128</v>
       </c>
@@ -4243,7 +4243,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" s="5" t="s">
         <v>130</v>
       </c>
@@ -4254,7 +4254,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" s="5" t="s">
         <v>132</v>
       </c>
@@ -4265,7 +4265,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="58" spans="1:3" ht="30">
+    <row r="58" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A58" s="5" t="s">
         <v>134</v>
       </c>
@@ -4276,7 +4276,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" s="5" t="s">
         <v>137</v>
       </c>
@@ -4287,7 +4287,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" s="5" t="s">
         <v>140</v>
       </c>
@@ -4298,7 +4298,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" s="5" t="s">
         <v>142</v>
       </c>
@@ -4309,7 +4309,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" s="5" t="s">
         <v>144</v>
       </c>
@@ -4320,7 +4320,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" s="5" t="s">
         <v>146</v>
       </c>
@@ -4331,7 +4331,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" s="5" t="s">
         <v>148</v>
       </c>
@@ -4342,7 +4342,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" s="5" t="s">
         <v>150</v>
       </c>
@@ -4353,7 +4353,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" s="5" t="s">
         <v>153</v>
       </c>
@@ -4364,14 +4364,14 @@
         <v>155</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" s="7" t="s">
         <v>156</v>
       </c>
       <c r="B67" s="6"/>
       <c r="C67" s="6"/>
     </row>
-    <row r="68" spans="1:3" ht="30">
+    <row r="68" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A68" s="5" t="s">
         <v>157</v>
       </c>
@@ -4382,7 +4382,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="69" spans="1:3" ht="30">
+    <row r="69" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A69" s="5" t="s">
         <v>160</v>
       </c>
@@ -4393,7 +4393,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="70" spans="1:3" ht="30">
+    <row r="70" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A70" s="5" t="s">
         <v>162</v>
       </c>
@@ -4404,7 +4404,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="71" spans="1:3" ht="30">
+    <row r="71" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A71" s="5" t="s">
         <v>164</v>
       </c>
@@ -4415,7 +4415,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="72" spans="1:3" ht="30">
+    <row r="72" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A72" s="5" t="s">
         <v>166</v>
       </c>
@@ -4426,7 +4426,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="73" spans="1:3" ht="30">
+    <row r="73" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A73" s="5" t="s">
         <v>168</v>
       </c>
@@ -4437,7 +4437,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="74" spans="1:3" ht="30">
+    <row r="74" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A74" s="5" t="s">
         <v>170</v>
       </c>
@@ -4448,7 +4448,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="75" spans="1:3" ht="30">
+    <row r="75" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A75" s="5" t="s">
         <v>172</v>
       </c>
@@ -4459,7 +4459,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="76" spans="1:3" ht="30">
+    <row r="76" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A76" s="5" t="s">
         <v>174</v>
       </c>
@@ -4470,7 +4470,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="77" spans="1:3" ht="30">
+    <row r="77" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A77" s="5" t="s">
         <v>176</v>
       </c>
@@ -4481,7 +4481,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="78" spans="1:3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" s="5" t="s">
         <v>178</v>
       </c>
@@ -4492,7 +4492,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="79" spans="1:3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" s="5" t="s">
         <v>181</v>
       </c>
@@ -4503,7 +4503,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="80" spans="1:3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" s="5" t="s">
         <v>184</v>
       </c>
@@ -4514,7 +4514,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="81" spans="1:3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" s="5" t="s">
         <v>186</v>
       </c>
@@ -4525,7 +4525,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="82" spans="1:3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" s="5" t="s">
         <v>188</v>
       </c>
@@ -4536,7 +4536,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="83" spans="1:3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" s="5" t="s">
         <v>191</v>
       </c>
@@ -4547,7 +4547,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="84" spans="1:3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" s="5" t="s">
         <v>194</v>
       </c>
@@ -4558,7 +4558,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="85" spans="1:3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" s="5" t="s">
         <v>197</v>
       </c>
@@ -4569,7 +4569,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="86" spans="1:3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" s="5" t="s">
         <v>200</v>
       </c>
@@ -4580,7 +4580,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="87" spans="1:3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87" s="5" t="s">
         <v>202</v>
       </c>
@@ -4591,7 +4591,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="88" spans="1:3">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88" s="5" t="s">
         <v>204</v>
       </c>
@@ -4602,7 +4602,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="89" spans="1:3">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" s="5" t="s">
         <v>206</v>
       </c>
@@ -4613,7 +4613,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="90" spans="1:3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90" s="5" t="s">
         <v>208</v>
       </c>
@@ -4624,7 +4624,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="91" spans="1:3">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91" s="5" t="s">
         <v>210</v>
       </c>
@@ -4635,7 +4635,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="92" spans="1:3">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92" s="5" t="s">
         <v>212</v>
       </c>
@@ -4646,7 +4646,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="93" spans="1:3">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93" s="5" t="s">
         <v>214</v>
       </c>
@@ -4657,7 +4657,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="94" spans="1:3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94" s="5" t="s">
         <v>216</v>
       </c>
@@ -4668,7 +4668,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="95" spans="1:3">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95" s="5" t="s">
         <v>218</v>
       </c>
@@ -4679,7 +4679,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="96" spans="1:3">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96" s="5" t="s">
         <v>221</v>
       </c>
@@ -4690,7 +4690,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="97" spans="1:3">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97" s="5" t="s">
         <v>223</v>
       </c>
@@ -4701,7 +4701,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="98" spans="1:3">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98" s="5" t="s">
         <v>226</v>
       </c>
@@ -4712,7 +4712,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="99" spans="1:3">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99" s="5" t="s">
         <v>228</v>
       </c>
@@ -4723,7 +4723,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="100" spans="1:3">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100" s="5" t="s">
         <v>230</v>
       </c>
@@ -4734,7 +4734,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="101" spans="1:3">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101" s="5" t="s">
         <v>232</v>
       </c>
@@ -4745,7 +4745,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="102" spans="1:3">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102" s="5" t="s">
         <v>234</v>
       </c>
@@ -4756,14 +4756,14 @@
         <v>76</v>
       </c>
     </row>
-    <row r="103" spans="1:3">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103" s="7" t="s">
         <v>236</v>
       </c>
       <c r="B103" s="6"/>
       <c r="C103" s="6"/>
     </row>
-    <row r="104" spans="1:3">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104" s="5" t="s">
         <v>237</v>
       </c>
@@ -4774,7 +4774,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="105" spans="1:3">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A105" s="5" t="s">
         <v>240</v>
       </c>
@@ -4785,7 +4785,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="106" spans="1:3" ht="30">
+    <row r="106" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A106" s="5" t="s">
         <v>242</v>
       </c>
@@ -4796,7 +4796,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="107" spans="1:3">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A107" s="5" t="s">
         <v>244</v>
       </c>
@@ -4807,7 +4807,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="108" spans="1:3">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A108" s="5" t="s">
         <v>246</v>
       </c>
@@ -4818,7 +4818,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="109" spans="1:3">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A109" s="5" t="s">
         <v>248</v>
       </c>
@@ -4829,7 +4829,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="110" spans="1:3">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A110" s="5" t="s">
         <v>251</v>
       </c>
@@ -4840,7 +4840,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="111" spans="1:3">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A111" s="5" t="s">
         <v>253</v>
       </c>
@@ -4851,7 +4851,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="112" spans="1:3">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A112" s="5" t="s">
         <v>255</v>
       </c>
@@ -4862,7 +4862,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="113" spans="1:3">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A113" s="5" t="s">
         <v>257</v>
       </c>
@@ -4873,7 +4873,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="114" spans="1:3">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A114" s="5" t="s">
         <v>259</v>
       </c>
@@ -4884,7 +4884,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="115" spans="1:3">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A115" s="5" t="s">
         <v>261</v>
       </c>
@@ -4895,7 +4895,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="116" spans="1:3">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A116" s="5" t="s">
         <v>263</v>
       </c>
@@ -4906,7 +4906,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="117" spans="1:3">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A117" s="5" t="s">
         <v>265</v>
       </c>
@@ -4917,7 +4917,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="118" spans="1:3">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A118" s="5" t="s">
         <v>267</v>
       </c>
@@ -4928,7 +4928,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="119" spans="1:3" ht="30">
+    <row r="119" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A119" s="5" t="s">
         <v>269</v>
       </c>
@@ -4939,7 +4939,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="120" spans="1:3" ht="30">
+    <row r="120" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A120" s="5" t="s">
         <v>271</v>
       </c>
@@ -4950,7 +4950,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="121" spans="1:3">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A121" s="5" t="s">
         <v>273</v>
       </c>
@@ -4961,7 +4961,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="122" spans="1:3">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A122" s="5" t="s">
         <v>275</v>
       </c>
@@ -4972,7 +4972,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="123" spans="1:3">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A123" s="5" t="s">
         <v>277</v>
       </c>
@@ -4983,7 +4983,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="124" spans="1:3">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A124" s="5" t="s">
         <v>279</v>
       </c>
@@ -4994,7 +4994,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="125" spans="1:3">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A125" s="5" t="s">
         <v>281</v>
       </c>
@@ -5005,7 +5005,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="126" spans="1:3">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A126" s="5" t="s">
         <v>283</v>
       </c>
@@ -5016,7 +5016,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="127" spans="1:3">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A127" s="5" t="s">
         <v>285</v>
       </c>
@@ -5027,7 +5027,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="128" spans="1:3">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A128" s="5" t="s">
         <v>287</v>
       </c>
@@ -5038,7 +5038,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="129" spans="1:3">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A129" s="5" t="s">
         <v>289</v>
       </c>
@@ -5049,7 +5049,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="130" spans="1:3">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A130" s="5" t="s">
         <v>291</v>
       </c>
@@ -5060,7 +5060,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="131" spans="1:3">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A131" s="5" t="s">
         <v>293</v>
       </c>
@@ -5071,7 +5071,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="132" spans="1:3">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A132" s="5" t="s">
         <v>294</v>
       </c>
@@ -5082,14 +5082,14 @@
         <v>76</v>
       </c>
     </row>
-    <row r="133" spans="1:3">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A133" s="7" t="s">
         <v>295</v>
       </c>
       <c r="B133" s="6"/>
       <c r="C133" s="6"/>
     </row>
-    <row r="134" spans="1:3">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A134" s="5" t="s">
         <v>296</v>
       </c>
@@ -5100,7 +5100,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="135" spans="1:3">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A135" s="5" t="s">
         <v>298</v>
       </c>
@@ -5111,7 +5111,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="136" spans="1:3">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A136" s="5" t="s">
         <v>300</v>
       </c>
@@ -5122,7 +5122,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="137" spans="1:3">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A137" s="5" t="s">
         <v>302</v>
       </c>
@@ -5133,7 +5133,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="138" spans="1:3">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A138" s="5" t="s">
         <v>304</v>
       </c>
@@ -5144,7 +5144,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="139" spans="1:3">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A139" s="5" t="s">
         <v>306</v>
       </c>
@@ -5155,7 +5155,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="140" spans="1:3" ht="30">
+    <row r="140" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A140" s="5" t="s">
         <v>308</v>
       </c>
@@ -5166,7 +5166,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="141" spans="1:3" ht="30">
+    <row r="141" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A141" s="5" t="s">
         <v>310</v>
       </c>
@@ -5177,7 +5177,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="142" spans="1:3">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A142" s="5" t="s">
         <v>312</v>
       </c>
@@ -5188,7 +5188,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="143" spans="1:3">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A143" s="5" t="s">
         <v>314</v>
       </c>
@@ -5199,7 +5199,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="144" spans="1:3">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A144" s="5" t="s">
         <v>316</v>
       </c>
@@ -5210,7 +5210,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="145" spans="1:3">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A145" s="5" t="s">
         <v>318</v>
       </c>
@@ -5221,7 +5221,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="146" spans="1:3">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A146" s="5" t="s">
         <v>320</v>
       </c>
@@ -5232,7 +5232,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="147" spans="1:3">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A147" s="5" t="s">
         <v>322</v>
       </c>
@@ -5243,7 +5243,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="148" spans="1:3">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A148" s="5" t="s">
         <v>324</v>
       </c>
@@ -5254,7 +5254,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="149" spans="1:3">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A149" s="5" t="s">
         <v>326</v>
       </c>
@@ -5265,7 +5265,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="150" spans="1:3">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A150" s="5" t="s">
         <v>328</v>
       </c>
@@ -5276,7 +5276,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="151" spans="1:3">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A151" s="5" t="s">
         <v>330</v>
       </c>
@@ -5287,7 +5287,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="152" spans="1:3">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A152" s="5" t="s">
         <v>332</v>
       </c>
@@ -5298,7 +5298,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="153" spans="1:3">
+    <row r="153" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A153" s="5" t="s">
         <v>334</v>
       </c>
@@ -5309,7 +5309,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="154" spans="1:3">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A154" s="5" t="s">
         <v>336</v>
       </c>
@@ -5320,7 +5320,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="155" spans="1:3">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A155" s="5" t="s">
         <v>338</v>
       </c>
@@ -5331,7 +5331,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="156" spans="1:3" ht="30">
+    <row r="156" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A156" s="5" t="s">
         <v>340</v>
       </c>
@@ -5342,7 +5342,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="157" spans="1:3" ht="30">
+    <row r="157" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A157" s="5" t="s">
         <v>342</v>
       </c>
@@ -5353,7 +5353,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="158" spans="1:3">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A158" s="5" t="s">
         <v>344</v>
       </c>
@@ -5364,7 +5364,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="159" spans="1:3">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A159" s="5" t="s">
         <v>346</v>
       </c>
@@ -5375,7 +5375,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="160" spans="1:3">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A160" s="5" t="s">
         <v>348</v>
       </c>
@@ -5386,7 +5386,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="161" spans="1:3">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A161" s="5" t="s">
         <v>350</v>
       </c>
@@ -5397,7 +5397,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="162" spans="1:3">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A162" s="5" t="s">
         <v>352</v>
       </c>
@@ -5408,7 +5408,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="163" spans="1:3">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A163" s="5" t="s">
         <v>354</v>
       </c>
@@ -5419,7 +5419,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="164" spans="1:3">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A164" s="5" t="s">
         <v>356</v>
       </c>
@@ -5430,7 +5430,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="165" spans="1:3">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A165" s="5" t="s">
         <v>358</v>
       </c>
@@ -5441,7 +5441,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="166" spans="1:3">
+    <row r="166" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A166" s="5" t="s">
         <v>360</v>
       </c>
@@ -5452,7 +5452,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="167" spans="1:3" ht="30">
+    <row r="167" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A167" s="5" t="s">
         <v>362</v>
       </c>
@@ -5463,7 +5463,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="168" spans="1:3">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A168" s="5" t="s">
         <v>364</v>
       </c>
@@ -5474,7 +5474,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="169" spans="1:3">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A169" s="5" t="s">
         <v>366</v>
       </c>
@@ -5485,7 +5485,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="170" spans="1:3">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A170" s="5" t="s">
         <v>368</v>
       </c>
@@ -5496,7 +5496,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="171" spans="1:3">
+    <row r="171" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A171" s="5" t="s">
         <v>370</v>
       </c>
@@ -5507,7 +5507,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="172" spans="1:3">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A172" s="5" t="s">
         <v>372</v>
       </c>
@@ -5518,7 +5518,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="173" spans="1:3">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A173" s="5" t="s">
         <v>374</v>
       </c>
@@ -5529,7 +5529,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="174" spans="1:3">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A174" s="5" t="s">
         <v>376</v>
       </c>
@@ -5540,7 +5540,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="175" spans="1:3" ht="30">
+    <row r="175" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A175" s="5" t="s">
         <v>378</v>
       </c>
@@ -5551,7 +5551,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="176" spans="1:3" ht="30">
+    <row r="176" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A176" s="5" t="s">
         <v>380</v>
       </c>
@@ -5562,14 +5562,14 @@
         <v>382</v>
       </c>
     </row>
-    <row r="177" spans="1:3">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A177" s="7" t="s">
         <v>383</v>
       </c>
       <c r="B177" s="6"/>
       <c r="C177" s="6"/>
     </row>
-    <row r="178" spans="1:3" ht="30">
+    <row r="178" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A178" s="5" t="s">
         <v>384</v>
       </c>
@@ -5580,7 +5580,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="179" spans="1:3" ht="30">
+    <row r="179" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A179" s="5" t="s">
         <v>386</v>
       </c>
@@ -5591,7 +5591,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="180" spans="1:3">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A180" s="5" t="s">
         <v>388</v>
       </c>
@@ -5602,7 +5602,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="181" spans="1:3">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A181" s="5" t="s">
         <v>390</v>
       </c>
@@ -5613,7 +5613,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="182" spans="1:3">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A182" s="5" t="s">
         <v>392</v>
       </c>
@@ -5624,7 +5624,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="183" spans="1:3">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A183" s="5" t="s">
         <v>394</v>
       </c>
@@ -5635,7 +5635,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="184" spans="1:3">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A184" s="5" t="s">
         <v>396</v>
       </c>
@@ -5646,7 +5646,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="185" spans="1:3">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A185" s="5" t="s">
         <v>398</v>
       </c>
@@ -5657,7 +5657,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="186" spans="1:3">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A186" s="5" t="s">
         <v>400</v>
       </c>
@@ -5668,7 +5668,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="187" spans="1:3">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A187" s="5" t="s">
         <v>402</v>
       </c>
@@ -5679,7 +5679,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="188" spans="1:3">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A188" s="5" t="s">
         <v>404</v>
       </c>
@@ -5690,7 +5690,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="189" spans="1:3">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A189" s="5" t="s">
         <v>406</v>
       </c>
@@ -5701,7 +5701,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="190" spans="1:3">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A190" s="5" t="s">
         <v>408</v>
       </c>
@@ -5712,7 +5712,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="191" spans="1:3">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A191" s="5" t="s">
         <v>410</v>
       </c>
@@ -5723,7 +5723,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="192" spans="1:3" ht="30">
+    <row r="192" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A192" s="5" t="s">
         <v>412</v>
       </c>
@@ -5734,7 +5734,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="193" spans="1:3" ht="30">
+    <row r="193" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A193" s="5" t="s">
         <v>414</v>
       </c>
@@ -5745,7 +5745,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="194" spans="1:3" ht="30">
+    <row r="194" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A194" s="3" t="s">
         <v>417</v>
       </c>
@@ -5756,7 +5756,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="195" spans="1:3" ht="30">
+    <row r="195" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A195" s="5" t="s">
         <v>419</v>
       </c>
@@ -5767,7 +5767,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="196" spans="1:3" ht="30">
+    <row r="196" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A196" s="5" t="s">
         <v>422</v>
       </c>
@@ -5778,7 +5778,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="197" spans="1:3" ht="30">
+    <row r="197" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A197" s="3" t="s">
         <v>424</v>
       </c>
@@ -5789,7 +5789,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="198" spans="1:3" ht="30">
+    <row r="198" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A198" s="5" t="s">
         <v>426</v>
       </c>
@@ -5800,7 +5800,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="199" spans="1:3" ht="30">
+    <row r="199" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A199" s="5" t="s">
         <v>428</v>
       </c>
@@ -5811,7 +5811,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="200" spans="1:3" ht="30">
+    <row r="200" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A200" s="3" t="s">
         <v>430</v>
       </c>
@@ -5822,7 +5822,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="201" spans="1:3" ht="30">
+    <row r="201" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A201" s="5" t="s">
         <v>432</v>
       </c>
@@ -5833,7 +5833,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="202" spans="1:3" ht="30">
+    <row r="202" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A202" s="5" t="s">
         <v>435</v>
       </c>
@@ -5844,7 +5844,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="203" spans="1:3" ht="30">
+    <row r="203" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A203" s="3" t="s">
         <v>437</v>
       </c>
@@ -5855,7 +5855,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="204" spans="1:3" ht="30">
+    <row r="204" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A204" s="5" t="s">
         <v>439</v>
       </c>
@@ -5866,7 +5866,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="205" spans="1:3" ht="30">
+    <row r="205" spans="1:3" ht="45" x14ac:dyDescent="0.3">
       <c r="A205" s="5" t="s">
         <v>441</v>
       </c>
@@ -5877,7 +5877,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="206" spans="1:3" ht="30">
+    <row r="206" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A206" s="3" t="s">
         <v>443</v>
       </c>
@@ -5888,7 +5888,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="207" spans="1:3" ht="30">
+    <row r="207" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A207" s="5" t="s">
         <v>445</v>
       </c>
@@ -5899,7 +5899,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="208" spans="1:3" ht="30">
+    <row r="208" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A208" s="5" t="s">
         <v>447</v>
       </c>
@@ -5910,7 +5910,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="209" spans="1:3">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A209" s="5" t="s">
         <v>449</v>
       </c>
@@ -5921,7 +5921,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="210" spans="1:3">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A210" s="5" t="s">
         <v>451</v>
       </c>
@@ -5932,7 +5932,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="211" spans="1:3">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A211" s="5" t="s">
         <v>453</v>
       </c>
@@ -5943,7 +5943,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="212" spans="1:3" ht="30">
+    <row r="212" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A212" s="5" t="s">
         <v>455</v>
       </c>
@@ -5954,7 +5954,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="213" spans="1:3">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A213" s="5" t="s">
         <v>457</v>
       </c>
@@ -5965,7 +5965,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="214" spans="1:3">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A214" s="5" t="s">
         <v>458</v>
       </c>
@@ -5976,7 +5976,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="215" spans="1:3">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A215" s="5" t="s">
         <v>459</v>
       </c>
@@ -5987,7 +5987,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="216" spans="1:3" ht="30">
+    <row r="216" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A216" s="5" t="s">
         <v>460</v>
       </c>
@@ -5998,7 +5998,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="217" spans="1:3">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A217" s="5" t="s">
         <v>461</v>
       </c>
@@ -6009,7 +6009,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="218" spans="1:3">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A218" s="5" t="s">
         <v>463</v>
       </c>
@@ -6020,7 +6020,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="219" spans="1:3">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A219" s="5" t="s">
         <v>465</v>
       </c>
@@ -6031,7 +6031,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="220" spans="1:3">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A220" s="5" t="s">
         <v>467</v>
       </c>
@@ -6042,7 +6042,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="221" spans="1:3">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A221" s="5" t="s">
         <v>469</v>
       </c>
@@ -6053,7 +6053,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="222" spans="1:3">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A222" s="5" t="s">
         <v>471</v>
       </c>
@@ -6064,7 +6064,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="223" spans="1:3">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A223" s="5" t="s">
         <v>473</v>
       </c>
@@ -6075,7 +6075,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="224" spans="1:3">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A224" s="5" t="s">
         <v>475</v>
       </c>
@@ -6086,7 +6086,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="225" spans="1:3">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A225" s="5" t="s">
         <v>477</v>
       </c>
@@ -6097,7 +6097,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="226" spans="1:3">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A226" s="5" t="s">
         <v>479</v>
       </c>
@@ -6108,14 +6108,14 @@
         <v>76</v>
       </c>
     </row>
-    <row r="227" spans="1:3">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A227" s="7" t="s">
         <v>481</v>
       </c>
       <c r="B227" s="6"/>
       <c r="C227" s="6"/>
     </row>
-    <row r="228" spans="1:3">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A228" s="5" t="s">
         <v>482</v>
       </c>
@@ -6126,7 +6126,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="229" spans="1:3">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A229" s="5" t="s">
         <v>484</v>
       </c>
@@ -6137,7 +6137,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="230" spans="1:3">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A230" s="5" t="s">
         <v>486</v>
       </c>
@@ -6148,7 +6148,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="231" spans="1:3">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A231" s="5" t="s">
         <v>488</v>
       </c>
@@ -6159,7 +6159,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="232" spans="1:3">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A232" s="5" t="s">
         <v>490</v>
       </c>
@@ -6170,7 +6170,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="233" spans="1:3">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A233" s="5" t="s">
         <v>492</v>
       </c>
@@ -6181,7 +6181,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="234" spans="1:3">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A234" s="5" t="s">
         <v>494</v>
       </c>
@@ -6192,7 +6192,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="235" spans="1:3" ht="30">
+    <row r="235" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A235" s="5" t="s">
         <v>496</v>
       </c>
@@ -6203,7 +6203,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="236" spans="1:3" ht="30">
+    <row r="236" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A236" s="5" t="s">
         <v>498</v>
       </c>
@@ -6214,7 +6214,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="237" spans="1:3" ht="30">
+    <row r="237" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A237" s="5" t="s">
         <v>500</v>
       </c>
@@ -6225,7 +6225,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="238" spans="1:3" ht="30">
+    <row r="238" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A238" s="5" t="s">
         <v>502</v>
       </c>
@@ -6236,7 +6236,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="239" spans="1:3" ht="30">
+    <row r="239" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A239" s="5" t="s">
         <v>504</v>
       </c>
@@ -6247,7 +6247,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="240" spans="1:3" ht="30">
+    <row r="240" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A240" s="5" t="s">
         <v>507</v>
       </c>
@@ -6258,7 +6258,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="241" spans="1:3" ht="30">
+    <row r="241" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A241" s="5" t="s">
         <v>509</v>
       </c>
@@ -6269,7 +6269,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="242" spans="1:3" ht="30">
+    <row r="242" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A242" s="5" t="s">
         <v>511</v>
       </c>
@@ -6280,7 +6280,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="243" spans="1:3" ht="30">
+    <row r="243" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A243" s="5" t="s">
         <v>513</v>
       </c>
@@ -6291,7 +6291,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="244" spans="1:3" ht="30">
+    <row r="244" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A244" s="5" t="s">
         <v>515</v>
       </c>
@@ -6302,7 +6302,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="245" spans="1:3">
+    <row r="245" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A245" s="5" t="s">
         <v>516</v>
       </c>
@@ -6313,7 +6313,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="246" spans="1:3">
+    <row r="246" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A246" s="5" t="s">
         <v>518</v>
       </c>
@@ -6324,7 +6324,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="247" spans="1:3">
+    <row r="247" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A247" s="5" t="s">
         <v>520</v>
       </c>
@@ -6335,7 +6335,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="248" spans="1:3">
+    <row r="248" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A248" s="5" t="s">
         <v>522</v>
       </c>
@@ -6346,7 +6346,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="249" spans="1:3">
+    <row r="249" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A249" s="5" t="s">
         <v>523</v>
       </c>
@@ -6357,7 +6357,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="250" spans="1:3">
+    <row r="250" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A250" s="5" t="s">
         <v>524</v>
       </c>
@@ -6368,7 +6368,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="251" spans="1:3">
+    <row r="251" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A251" s="5" t="s">
         <v>525</v>
       </c>
@@ -6379,7 +6379,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="252" spans="1:3">
+    <row r="252" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A252" s="5" t="s">
         <v>527</v>
       </c>
@@ -6390,7 +6390,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="253" spans="1:3">
+    <row r="253" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A253" s="5" t="s">
         <v>529</v>
       </c>
@@ -6401,7 +6401,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="254" spans="1:3" ht="30">
+    <row r="254" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A254" s="5" t="s">
         <v>531</v>
       </c>
@@ -6412,7 +6412,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="255" spans="1:3" ht="30">
+    <row r="255" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A255" s="5" t="s">
         <v>533</v>
       </c>
@@ -6423,7 +6423,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="256" spans="1:3" ht="30">
+    <row r="256" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A256" s="5" t="s">
         <v>535</v>
       </c>
@@ -6434,7 +6434,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="257" spans="1:3">
+    <row r="257" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A257" s="5" t="s">
         <v>537</v>
       </c>
@@ -6445,7 +6445,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="258" spans="1:3" ht="30">
+    <row r="258" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A258" s="5" t="s">
         <v>539</v>
       </c>
@@ -6456,7 +6456,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="259" spans="1:3">
+    <row r="259" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A259" s="5" t="s">
         <v>541</v>
       </c>
@@ -6467,7 +6467,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="260" spans="1:3">
+    <row r="260" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A260" s="5" t="s">
         <v>543</v>
       </c>
@@ -6478,7 +6478,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="261" spans="1:3">
+    <row r="261" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A261" s="5" t="s">
         <v>545</v>
       </c>
@@ -6489,7 +6489,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="262" spans="1:3">
+    <row r="262" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A262" s="5" t="s">
         <v>547</v>
       </c>
@@ -6500,7 +6500,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="263" spans="1:3" ht="30">
+    <row r="263" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A263" s="5" t="s">
         <v>549</v>
       </c>
@@ -6511,7 +6511,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="264" spans="1:3">
+    <row r="264" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A264" s="5" t="s">
         <v>551</v>
       </c>
@@ -6522,7 +6522,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="265" spans="1:3">
+    <row r="265" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A265" s="5" t="s">
         <v>553</v>
       </c>
@@ -6533,7 +6533,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="266" spans="1:3">
+    <row r="266" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A266" s="5" t="s">
         <v>555</v>
       </c>
@@ -6544,14 +6544,14 @@
         <v>76</v>
       </c>
     </row>
-    <row r="267" spans="1:3">
+    <row r="267" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A267" s="7" t="s">
         <v>557</v>
       </c>
       <c r="B267" s="6"/>
       <c r="C267" s="6"/>
     </row>
-    <row r="268" spans="1:3">
+    <row r="268" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A268" s="5" t="s">
         <v>558</v>
       </c>
@@ -6562,7 +6562,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="269" spans="1:3">
+    <row r="269" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A269" s="5" t="s">
         <v>561</v>
       </c>
@@ -6573,7 +6573,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="270" spans="1:3">
+    <row r="270" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A270" s="5" t="s">
         <v>564</v>
       </c>
@@ -6584,7 +6584,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="271" spans="1:3" ht="30">
+    <row r="271" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A271" s="5" t="s">
         <v>567</v>
       </c>
@@ -6595,7 +6595,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="272" spans="1:3">
+    <row r="272" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A272" s="5" t="s">
         <v>570</v>
       </c>
@@ -6606,7 +6606,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="273" spans="1:3">
+    <row r="273" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A273" s="5" t="s">
         <v>572</v>
       </c>
@@ -6617,7 +6617,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="274" spans="1:3">
+    <row r="274" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A274" s="5" t="s">
         <v>574</v>
       </c>
@@ -6628,7 +6628,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="275" spans="1:3">
+    <row r="275" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A275" s="5" t="s">
         <v>576</v>
       </c>
@@ -6639,7 +6639,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="276" spans="1:3">
+    <row r="276" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A276" s="5" t="s">
         <v>579</v>
       </c>
@@ -6650,7 +6650,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="277" spans="1:3">
+    <row r="277" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A277" s="5" t="s">
         <v>581</v>
       </c>
@@ -6661,7 +6661,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="278" spans="1:3">
+    <row r="278" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A278" s="5" t="s">
         <v>583</v>
       </c>
@@ -6672,7 +6672,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="279" spans="1:3">
+    <row r="279" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A279" s="5" t="s">
         <v>585</v>
       </c>
@@ -6683,7 +6683,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="280" spans="1:3" ht="30">
+    <row r="280" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A280" s="5" t="s">
         <v>588</v>
       </c>
@@ -6694,7 +6694,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="281" spans="1:3">
+    <row r="281" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A281" s="5" t="s">
         <v>590</v>
       </c>
@@ -6705,7 +6705,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="282" spans="1:3">
+    <row r="282" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A282" s="5" t="s">
         <v>592</v>
       </c>
@@ -6716,7 +6716,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="283" spans="1:3">
+    <row r="283" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A283" s="5" t="s">
         <v>594</v>
       </c>
@@ -6727,7 +6727,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="284" spans="1:3">
+    <row r="284" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A284" s="5" t="s">
         <v>596</v>
       </c>
@@ -6738,7 +6738,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="285" spans="1:3">
+    <row r="285" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A285" s="5" t="s">
         <v>598</v>
       </c>
@@ -6749,7 +6749,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="286" spans="1:3">
+    <row r="286" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A286" s="5" t="s">
         <v>600</v>
       </c>
@@ -6760,7 +6760,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="287" spans="1:3">
+    <row r="287" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A287" s="5" t="s">
         <v>602</v>
       </c>
@@ -6771,7 +6771,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="288" spans="1:3" ht="30">
+    <row r="288" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A288" s="5" t="s">
         <v>604</v>
       </c>
@@ -6782,7 +6782,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="289" spans="1:3" ht="30">
+    <row r="289" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A289" s="5" t="s">
         <v>606</v>
       </c>
@@ -6793,7 +6793,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="290" spans="1:3">
+    <row r="290" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A290" s="5" t="s">
         <v>608</v>
       </c>
@@ -6804,7 +6804,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="291" spans="1:3">
+    <row r="291" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A291" s="5" t="s">
         <v>610</v>
       </c>
@@ -6815,7 +6815,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="292" spans="1:3">
+    <row r="292" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A292" s="5" t="s">
         <v>612</v>
       </c>
@@ -6826,7 +6826,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="293" spans="1:3" ht="30">
+    <row r="293" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A293" s="5" t="s">
         <v>614</v>
       </c>
@@ -6837,7 +6837,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="294" spans="1:3">
+    <row r="294" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A294" s="5" t="s">
         <v>616</v>
       </c>
@@ -6848,7 +6848,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="295" spans="1:3" ht="30.95">
+    <row r="295" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A295" s="12" t="s">
         <v>618</v>
       </c>
@@ -6859,14 +6859,14 @@
         <v>620</v>
       </c>
     </row>
-    <row r="296" spans="1:3">
+    <row r="296" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A296" s="7" t="s">
         <v>621</v>
       </c>
       <c r="B296" s="6"/>
       <c r="C296" s="6"/>
     </row>
-    <row r="297" spans="1:3">
+    <row r="297" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A297" s="5" t="s">
         <v>622</v>
       </c>
@@ -6877,7 +6877,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="298" spans="1:3">
+    <row r="298" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A298" s="5" t="s">
         <v>624</v>
       </c>
@@ -6888,7 +6888,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="299" spans="1:3">
+    <row r="299" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A299" s="5" t="s">
         <v>626</v>
       </c>
@@ -6899,7 +6899,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="300" spans="1:3">
+    <row r="300" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A300" s="5" t="s">
         <v>628</v>
       </c>
@@ -6910,7 +6910,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="301" spans="1:3">
+    <row r="301" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A301" s="5" t="s">
         <v>630</v>
       </c>
@@ -6921,7 +6921,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="302" spans="1:3">
+    <row r="302" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A302" s="5" t="s">
         <v>632</v>
       </c>
@@ -6932,7 +6932,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="303" spans="1:3">
+    <row r="303" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A303" s="5" t="s">
         <v>634</v>
       </c>
@@ -6943,7 +6943,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="304" spans="1:3">
+    <row r="304" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A304" s="5" t="s">
         <v>636</v>
       </c>
@@ -6954,7 +6954,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="305" spans="1:3">
+    <row r="305" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A305" s="5" t="s">
         <v>638</v>
       </c>
@@ -6965,7 +6965,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="306" spans="1:3">
+    <row r="306" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A306" s="5" t="s">
         <v>640</v>
       </c>
@@ -6976,7 +6976,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="307" spans="1:3">
+    <row r="307" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A307" s="5" t="s">
         <v>643</v>
       </c>
@@ -6987,7 +6987,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="308" spans="1:3" ht="30">
+    <row r="308" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A308" s="5" t="s">
         <v>645</v>
       </c>
@@ -6998,7 +6998,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="309" spans="1:3">
+    <row r="309" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A309" s="5" t="s">
         <v>647</v>
       </c>
@@ -7009,7 +7009,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="310" spans="1:3">
+    <row r="310" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A310" s="5" t="s">
         <v>648</v>
       </c>
@@ -7020,7 +7020,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="311" spans="1:3">
+    <row r="311" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A311" s="5" t="s">
         <v>650</v>
       </c>
@@ -7031,7 +7031,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="312" spans="1:3">
+    <row r="312" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A312" s="5" t="s">
         <v>651</v>
       </c>
@@ -7042,7 +7042,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="313" spans="1:3">
+    <row r="313" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A313" s="5" t="s">
         <v>653</v>
       </c>
@@ -7053,7 +7053,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="314" spans="1:3">
+    <row r="314" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A314" s="5" t="s">
         <v>655</v>
       </c>
@@ -7064,7 +7064,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="315" spans="1:3">
+    <row r="315" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A315" s="5" t="s">
         <v>657</v>
       </c>
@@ -7075,7 +7075,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="316" spans="1:3">
+    <row r="316" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A316" s="5" t="s">
         <v>659</v>
       </c>
@@ -7086,7 +7086,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="317" spans="1:3">
+    <row r="317" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A317" s="5" t="s">
         <v>661</v>
       </c>
@@ -7097,7 +7097,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="318" spans="1:3">
+    <row r="318" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A318" s="5" t="s">
         <v>663</v>
       </c>
@@ -7108,7 +7108,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="319" spans="1:3">
+    <row r="319" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A319" s="5" t="s">
         <v>665</v>
       </c>
@@ -7119,7 +7119,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="320" spans="1:3">
+    <row r="320" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A320" s="5" t="s">
         <v>667</v>
       </c>
@@ -7130,7 +7130,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="321" spans="1:3">
+    <row r="321" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A321" s="5" t="s">
         <v>669</v>
       </c>
@@ -7141,7 +7141,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="322" spans="1:3">
+    <row r="322" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A322" s="5" t="s">
         <v>671</v>
       </c>
@@ -7152,7 +7152,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="323" spans="1:3">
+    <row r="323" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A323" s="5" t="s">
         <v>673</v>
       </c>
@@ -7163,7 +7163,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="324" spans="1:3">
+    <row r="324" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A324" s="5" t="s">
         <v>675</v>
       </c>
@@ -7174,7 +7174,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="325" spans="1:3" ht="30">
+    <row r="325" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A325" s="5" t="s">
         <v>677</v>
       </c>
@@ -7185,14 +7185,14 @@
         <v>32</v>
       </c>
     </row>
-    <row r="326" spans="1:3">
+    <row r="326" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A326" s="7" t="s">
         <v>679</v>
       </c>
       <c r="B326" s="13"/>
       <c r="C326" s="6"/>
     </row>
-    <row r="327" spans="1:3">
+    <row r="327" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A327" s="5" t="s">
         <v>680</v>
       </c>
@@ -7203,7 +7203,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="328" spans="1:3">
+    <row r="328" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A328" s="5" t="s">
         <v>683</v>
       </c>
@@ -7214,7 +7214,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="329" spans="1:3" ht="30">
+    <row r="329" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A329" s="5" t="s">
         <v>685</v>
       </c>
@@ -7225,7 +7225,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="330" spans="1:3">
+    <row r="330" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A330" s="5" t="s">
         <v>688</v>
       </c>
@@ -7236,7 +7236,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="331" spans="1:3">
+    <row r="331" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A331" s="5" t="s">
         <v>691</v>
       </c>
@@ -7247,7 +7247,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="332" spans="1:3">
+    <row r="332" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A332" s="5" t="s">
         <v>693</v>
       </c>
@@ -7258,7 +7258,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="333" spans="1:3">
+    <row r="333" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A333" s="5" t="s">
         <v>695</v>
       </c>
@@ -7269,7 +7269,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="334" spans="1:3" ht="30">
+    <row r="334" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A334" s="5" t="s">
         <v>697</v>
       </c>
@@ -7280,7 +7280,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="335" spans="1:3">
+    <row r="335" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A335" s="5" t="s">
         <v>698</v>
       </c>
@@ -7291,7 +7291,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="336" spans="1:3">
+    <row r="336" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A336" s="5" t="s">
         <v>699</v>
       </c>
@@ -7302,7 +7302,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="337" spans="1:3">
+    <row r="337" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A337" s="5" t="s">
         <v>700</v>
       </c>
@@ -7313,7 +7313,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="338" spans="1:3">
+    <row r="338" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A338" s="5" t="s">
         <v>701</v>
       </c>
@@ -7324,7 +7324,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="339" spans="1:3" ht="30">
+    <row r="339" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A339" s="5" t="s">
         <v>702</v>
       </c>
@@ -7335,7 +7335,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="340" spans="1:3">
+    <row r="340" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A340" s="5" t="s">
         <v>703</v>
       </c>
@@ -7346,7 +7346,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="341" spans="1:3">
+    <row r="341" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A341" s="5" t="s">
         <v>704</v>
       </c>
@@ -7357,7 +7357,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="342" spans="1:3">
+    <row r="342" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A342" s="5" t="s">
         <v>705</v>
       </c>
@@ -7368,7 +7368,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="343" spans="1:3">
+    <row r="343" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A343" s="5" t="s">
         <v>706</v>
       </c>
@@ -7379,7 +7379,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="344" spans="1:3" ht="30">
+    <row r="344" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A344" s="5" t="s">
         <v>707</v>
       </c>
@@ -7390,7 +7390,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="345" spans="1:3">
+    <row r="345" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A345" s="5" t="s">
         <v>708</v>
       </c>
@@ -7401,7 +7401,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="346" spans="1:3">
+    <row r="346" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A346" s="5" t="s">
         <v>709</v>
       </c>
@@ -7412,7 +7412,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="347" spans="1:3">
+    <row r="347" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A347" s="5" t="s">
         <v>710</v>
       </c>
@@ -7423,7 +7423,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="348" spans="1:3">
+    <row r="348" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A348" s="5" t="s">
         <v>711</v>
       </c>
@@ -7434,7 +7434,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="349" spans="1:3" ht="30">
+    <row r="349" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A349" s="5" t="s">
         <v>712</v>
       </c>
@@ -7445,7 +7445,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="350" spans="1:3">
+    <row r="350" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A350" s="5" t="s">
         <v>713</v>
       </c>
@@ -7456,7 +7456,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="351" spans="1:3">
+    <row r="351" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A351" s="5" t="s">
         <v>714</v>
       </c>
@@ -7467,7 +7467,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="352" spans="1:3">
+    <row r="352" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A352" s="5" t="s">
         <v>715</v>
       </c>
@@ -7478,7 +7478,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="353" spans="1:3">
+    <row r="353" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A353" s="5" t="s">
         <v>716</v>
       </c>
@@ -7489,7 +7489,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="354" spans="1:3" ht="30">
+    <row r="354" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A354" s="5" t="s">
         <v>717</v>
       </c>
@@ -7500,7 +7500,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="355" spans="1:3">
+    <row r="355" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A355" s="5" t="s">
         <v>718</v>
       </c>
@@ -7511,7 +7511,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="356" spans="1:3">
+    <row r="356" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A356" s="5" t="s">
         <v>719</v>
       </c>
@@ -7522,7 +7522,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="357" spans="1:3">
+    <row r="357" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A357" s="5" t="s">
         <v>720</v>
       </c>
@@ -7533,7 +7533,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="358" spans="1:3">
+    <row r="358" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A358" s="5" t="s">
         <v>721</v>
       </c>
@@ -7544,19 +7544,19 @@
         <v>32</v>
       </c>
     </row>
-    <row r="359" spans="1:3">
+    <row r="359" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A359" s="5"/>
       <c r="B359" s="3"/>
       <c r="C359" s="3"/>
     </row>
-    <row r="360" spans="1:3">
+    <row r="360" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A360" s="7" t="s">
         <v>722</v>
       </c>
       <c r="B360" s="6"/>
       <c r="C360" s="6"/>
     </row>
-    <row r="361" spans="1:3">
+    <row r="361" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A361" s="5" t="s">
         <v>723</v>
       </c>
@@ -7567,7 +7567,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="362" spans="1:3">
+    <row r="362" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A362" s="5" t="s">
         <v>725</v>
       </c>
@@ -7578,7 +7578,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="363" spans="1:3" ht="30">
+    <row r="363" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A363" s="5" t="s">
         <v>728</v>
       </c>
@@ -7589,7 +7589,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="364" spans="1:3">
+    <row r="364" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A364" s="5" t="s">
         <v>731</v>
       </c>
@@ -7600,7 +7600,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="365" spans="1:3">
+    <row r="365" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A365" s="5" t="s">
         <v>734</v>
       </c>
@@ -7611,7 +7611,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="366" spans="1:3">
+    <row r="366" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A366" s="5" t="s">
         <v>736</v>
       </c>
@@ -7622,7 +7622,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="367" spans="1:3">
+    <row r="367" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A367" s="5" t="s">
         <v>739</v>
       </c>
@@ -7633,7 +7633,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="368" spans="1:3">
+    <row r="368" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A368" s="5" t="s">
         <v>741</v>
       </c>
@@ -7644,7 +7644,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="369" spans="1:3">
+    <row r="369" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A369" s="5" t="s">
         <v>743</v>
       </c>
@@ -7655,7 +7655,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="370" spans="1:3">
+    <row r="370" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A370" s="5" t="s">
         <v>745</v>
       </c>
@@ -7666,7 +7666,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="371" spans="1:3">
+    <row r="371" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A371" s="5" t="s">
         <v>747</v>
       </c>
@@ -7677,7 +7677,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="372" spans="1:3">
+    <row r="372" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A372" s="5" t="s">
         <v>750</v>
       </c>
@@ -7688,7 +7688,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="373" spans="1:3">
+    <row r="373" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A373" s="5" t="s">
         <v>752</v>
       </c>
@@ -7699,7 +7699,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="374" spans="1:3">
+    <row r="374" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A374" s="5" t="s">
         <v>754</v>
       </c>
@@ -7710,7 +7710,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="375" spans="1:3">
+    <row r="375" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A375" s="5" t="s">
         <v>756</v>
       </c>
@@ -7721,7 +7721,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="376" spans="1:3">
+    <row r="376" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A376" s="5" t="s">
         <v>758</v>
       </c>
@@ -7732,7 +7732,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="377" spans="1:3">
+    <row r="377" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A377" s="5" t="s">
         <v>760</v>
       </c>
@@ -7743,7 +7743,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="378" spans="1:3">
+    <row r="378" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A378" s="5" t="s">
         <v>762</v>
       </c>
@@ -7754,7 +7754,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="379" spans="1:3" ht="30">
+    <row r="379" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A379" s="5" t="s">
         <v>764</v>
       </c>
@@ -7765,7 +7765,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="380" spans="1:3" ht="30">
+    <row r="380" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A380" s="5" t="s">
         <v>767</v>
       </c>
@@ -7776,7 +7776,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="381" spans="1:3" ht="30">
+    <row r="381" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A381" s="5" t="s">
         <v>769</v>
       </c>
@@ -7787,7 +7787,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="382" spans="1:3" ht="30">
+    <row r="382" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A382" s="5" t="s">
         <v>771</v>
       </c>
@@ -7798,7 +7798,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="383" spans="1:3" ht="30">
+    <row r="383" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A383" s="5" t="s">
         <v>773</v>
       </c>
@@ -7809,7 +7809,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="384" spans="1:3" ht="30">
+    <row r="384" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A384" s="5" t="s">
         <v>775</v>
       </c>
@@ -7820,7 +7820,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="385" spans="1:3" ht="30">
+    <row r="385" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A385" s="5" t="s">
         <v>777</v>
       </c>
@@ -7831,7 +7831,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="386" spans="1:3" ht="30">
+    <row r="386" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A386" s="5" t="s">
         <v>779</v>
       </c>
@@ -7842,7 +7842,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="387" spans="1:3">
+    <row r="387" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A387" s="5" t="s">
         <v>781</v>
       </c>
@@ -7853,7 +7853,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="388" spans="1:3" ht="30">
+    <row r="388" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A388" s="5" t="s">
         <v>783</v>
       </c>
@@ -7864,14 +7864,14 @@
         <v>785</v>
       </c>
     </row>
-    <row r="389" spans="1:3">
+    <row r="389" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A389" s="7" t="s">
         <v>786</v>
       </c>
       <c r="B389" s="6"/>
       <c r="C389" s="6"/>
     </row>
-    <row r="390" spans="1:3">
+    <row r="390" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A390" s="5" t="s">
         <v>787</v>
       </c>
@@ -7882,7 +7882,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="391" spans="1:3">
+    <row r="391" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A391" s="5" t="s">
         <v>789</v>
       </c>
@@ -7893,7 +7893,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="392" spans="1:3" ht="45">
+    <row r="392" spans="1:3" ht="45" x14ac:dyDescent="0.3">
       <c r="A392" s="5" t="s">
         <v>791</v>
       </c>
@@ -7904,7 +7904,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="393" spans="1:3">
+    <row r="393" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A393" s="5" t="s">
         <v>794</v>
       </c>
@@ -7915,7 +7915,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="394" spans="1:3">
+    <row r="394" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A394" s="5" t="s">
         <v>796</v>
       </c>
@@ -7926,7 +7926,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="395" spans="1:3">
+    <row r="395" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A395" s="5" t="s">
         <v>798</v>
       </c>
@@ -7937,7 +7937,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="396" spans="1:3" ht="45">
+    <row r="396" spans="1:3" ht="45" x14ac:dyDescent="0.3">
       <c r="A396" s="5" t="s">
         <v>800</v>
       </c>
@@ -7948,7 +7948,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="397" spans="1:3">
+    <row r="397" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A397" s="5" t="s">
         <v>802</v>
       </c>
@@ -7959,7 +7959,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="398" spans="1:3">
+    <row r="398" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A398" s="5" t="s">
         <v>804</v>
       </c>
@@ -7970,7 +7970,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="399" spans="1:3">
+    <row r="399" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A399" s="5" t="s">
         <v>805</v>
       </c>
@@ -7981,7 +7981,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="400" spans="1:3" ht="45">
+    <row r="400" spans="1:3" ht="45" x14ac:dyDescent="0.3">
       <c r="A400" s="5" t="s">
         <v>806</v>
       </c>
@@ -7992,7 +7992,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="401" spans="1:3">
+    <row r="401" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A401" s="5" t="s">
         <v>807</v>
       </c>
@@ -8003,7 +8003,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="402" spans="1:3">
+    <row r="402" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A402" s="5" t="s">
         <v>809</v>
       </c>
@@ -8014,7 +8014,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="403" spans="1:3">
+    <row r="403" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A403" s="5" t="s">
         <v>811</v>
       </c>
@@ -8025,7 +8025,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="404" spans="1:3" ht="45">
+    <row r="404" spans="1:3" ht="45" x14ac:dyDescent="0.3">
       <c r="A404" s="5" t="s">
         <v>813</v>
       </c>
@@ -8036,7 +8036,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="405" spans="1:3">
+    <row r="405" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A405" s="5" t="s">
         <v>815</v>
       </c>
@@ -8047,7 +8047,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="406" spans="1:3">
+    <row r="406" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A406" s="5" t="s">
         <v>816</v>
       </c>
@@ -8058,7 +8058,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="407" spans="1:3">
+    <row r="407" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A407" s="5" t="s">
         <v>818</v>
       </c>
@@ -8069,7 +8069,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="408" spans="1:3" ht="45">
+    <row r="408" spans="1:3" ht="45" x14ac:dyDescent="0.3">
       <c r="A408" s="5" t="s">
         <v>820</v>
       </c>
@@ -8080,7 +8080,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="409" spans="1:3">
+    <row r="409" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A409" s="5" t="s">
         <v>822</v>
       </c>
@@ -8091,7 +8091,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="410" spans="1:3">
+    <row r="410" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A410" s="5" t="s">
         <v>824</v>
       </c>
@@ -8102,7 +8102,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="411" spans="1:3">
+    <row r="411" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A411" s="5" t="s">
         <v>826</v>
       </c>
@@ -8113,7 +8113,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="412" spans="1:3" ht="45">
+    <row r="412" spans="1:3" ht="45" x14ac:dyDescent="0.3">
       <c r="A412" s="5" t="s">
         <v>828</v>
       </c>
@@ -8124,7 +8124,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="413" spans="1:3">
+    <row r="413" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A413" s="5" t="s">
         <v>830</v>
       </c>
@@ -8135,7 +8135,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="414" spans="1:3">
+    <row r="414" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A414" s="5" t="s">
         <v>832</v>
       </c>
@@ -8146,7 +8146,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="415" spans="1:3">
+    <row r="415" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A415" s="5" t="s">
         <v>834</v>
       </c>
@@ -8157,7 +8157,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="416" spans="1:3" ht="45">
+    <row r="416" spans="1:3" ht="45" x14ac:dyDescent="0.3">
       <c r="A416" s="5" t="s">
         <v>836</v>
       </c>
@@ -8168,7 +8168,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="417" spans="1:3">
+    <row r="417" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A417" s="5" t="s">
         <v>838</v>
       </c>
@@ -8179,7 +8179,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="418" spans="1:3">
+    <row r="418" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A418" s="5" t="s">
         <v>840</v>
       </c>
@@ -8190,7 +8190,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="419" spans="1:3">
+    <row r="419" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A419" s="5" t="s">
         <v>842</v>
       </c>
@@ -8201,7 +8201,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="420" spans="1:3" ht="45">
+    <row r="420" spans="1:3" ht="45" x14ac:dyDescent="0.3">
       <c r="A420" s="5" t="s">
         <v>844</v>
       </c>
@@ -8212,7 +8212,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="421" spans="1:3">
+    <row r="421" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A421" s="5" t="s">
         <v>846</v>
       </c>
@@ -8223,7 +8223,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="422" spans="1:3">
+    <row r="422" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A422" s="5" t="s">
         <v>848</v>
       </c>
@@ -8234,7 +8234,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="423" spans="1:3">
+    <row r="423" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A423" s="5" t="s">
         <v>850</v>
       </c>
@@ -8245,7 +8245,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="424" spans="1:3" ht="45">
+    <row r="424" spans="1:3" ht="45" x14ac:dyDescent="0.3">
       <c r="A424" s="5" t="s">
         <v>852</v>
       </c>
@@ -8256,7 +8256,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="425" spans="1:3">
+    <row r="425" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A425" s="5" t="s">
         <v>854</v>
       </c>
@@ -8267,7 +8267,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="426" spans="1:3">
+    <row r="426" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A426" s="5" t="s">
         <v>856</v>
       </c>
@@ -8278,7 +8278,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="427" spans="1:3">
+    <row r="427" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A427" s="5" t="s">
         <v>858</v>
       </c>
@@ -8289,7 +8289,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="428" spans="1:3" ht="45">
+    <row r="428" spans="1:3" ht="45" x14ac:dyDescent="0.3">
       <c r="A428" s="5" t="s">
         <v>860</v>
       </c>
@@ -8300,7 +8300,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="429" spans="1:3">
+    <row r="429" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A429" s="5" t="s">
         <v>862</v>
       </c>
@@ -8311,7 +8311,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="430" spans="1:3">
+    <row r="430" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A430" s="5" t="s">
         <v>864</v>
       </c>
@@ -8322,7 +8322,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="431" spans="1:3">
+    <row r="431" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A431" s="5" t="s">
         <v>866</v>
       </c>
@@ -8333,7 +8333,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="432" spans="1:3">
+    <row r="432" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A432" s="5" t="s">
         <v>868</v>
       </c>
@@ -8344,7 +8344,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="433" spans="1:3">
+    <row r="433" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A433" s="5" t="s">
         <v>870</v>
       </c>
@@ -8355,7 +8355,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="434" spans="1:3">
+    <row r="434" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A434" s="5" t="s">
         <v>872</v>
       </c>
@@ -8366,7 +8366,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="435" spans="1:3">
+    <row r="435" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A435" s="5" t="s">
         <v>875</v>
       </c>
@@ -8377,7 +8377,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="436" spans="1:3" ht="30">
+    <row r="436" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A436" s="3" t="s">
         <v>877</v>
       </c>
@@ -8388,7 +8388,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="437" spans="1:3">
+    <row r="437" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A437" s="5" t="s">
         <v>879</v>
       </c>
@@ -8399,7 +8399,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="438" spans="1:3">
+    <row r="438" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A438" s="5" t="s">
         <v>881</v>
       </c>
@@ -8410,7 +8410,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="439" spans="1:3">
+    <row r="439" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A439" s="5" t="s">
         <v>883</v>
       </c>
@@ -8421,7 +8421,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="440" spans="1:3">
+    <row r="440" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A440" s="5" t="s">
         <v>885</v>
       </c>
@@ -8432,7 +8432,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="441" spans="1:3">
+    <row r="441" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A441" s="5" t="s">
         <v>887</v>
       </c>
@@ -8443,12 +8443,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="442" spans="1:3">
+    <row r="442" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A442" s="7"/>
       <c r="B442" s="6"/>
       <c r="C442" s="6"/>
     </row>
-    <row r="443" spans="1:3">
+    <row r="443" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A443" s="5" t="s">
         <v>889</v>
       </c>
@@ -8459,7 +8459,7 @@
         <v>891</v>
       </c>
     </row>
-    <row r="444" spans="1:3">
+    <row r="444" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A444" s="5" t="s">
         <v>892</v>
       </c>
@@ -8470,24 +8470,24 @@
         <v>139</v>
       </c>
     </row>
-    <row r="445" spans="1:3">
+    <row r="445" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A445" s="5"/>
       <c r="B445" s="3"/>
       <c r="C445" s="3"/>
     </row>
-    <row r="446" spans="1:3">
+    <row r="446" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A446" s="5"/>
       <c r="B446" s="3"/>
       <c r="C446" s="3"/>
     </row>
-    <row r="447" spans="1:3">
+    <row r="447" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A447" s="7" t="s">
         <v>894</v>
       </c>
       <c r="B447" s="6"/>
       <c r="C447" s="6"/>
     </row>
-    <row r="448" spans="1:3">
+    <row r="448" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A448" s="15" t="s">
         <v>895</v>
       </c>
@@ -8495,7 +8495,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="449" spans="1:2">
+    <row r="449" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A449" s="15" t="s">
         <v>897</v>
       </c>
@@ -8503,7 +8503,7 @@
         <v>898</v>
       </c>
     </row>
-    <row r="450" spans="1:2">
+    <row r="450" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A450" s="15" t="s">
         <v>899</v>
       </c>
@@ -8511,7 +8511,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="451" spans="1:2">
+    <row r="451" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A451" s="15" t="s">
         <v>901</v>
       </c>
@@ -8519,7 +8519,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="452" spans="1:2">
+    <row r="452" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A452" s="15" t="s">
         <v>903</v>
       </c>
@@ -8527,7 +8527,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="453" spans="1:2">
+    <row r="453" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A453" s="15" t="s">
         <v>905</v>
       </c>
@@ -8535,7 +8535,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="454" spans="1:2">
+    <row r="454" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A454" s="15" t="s">
         <v>907</v>
       </c>
@@ -8543,7 +8543,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="455" spans="1:2">
+    <row r="455" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A455" s="15" t="s">
         <v>909</v>
       </c>
@@ -8551,7 +8551,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="456" spans="1:2">
+    <row r="456" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A456" s="15" t="s">
         <v>911</v>
       </c>
@@ -8559,7 +8559,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="457" spans="1:2">
+    <row r="457" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A457" s="15" t="s">
         <v>913</v>
       </c>
@@ -8567,7 +8567,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="458" spans="1:2">
+    <row r="458" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A458" s="15" t="s">
         <v>915</v>
       </c>
@@ -8575,7 +8575,7 @@
         <v>916</v>
       </c>
     </row>
-    <row r="459" spans="1:2">
+    <row r="459" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A459" s="15" t="s">
         <v>917</v>
       </c>
@@ -8583,7 +8583,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="460" spans="1:2">
+    <row r="460" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A460" s="15" t="s">
         <v>919</v>
       </c>
@@ -8591,7 +8591,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="461" spans="1:2">
+    <row r="461" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A461" s="15" t="s">
         <v>921</v>
       </c>
@@ -8599,7 +8599,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="462" spans="1:2">
+    <row r="462" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A462" s="15" t="s">
         <v>923</v>
       </c>
@@ -8607,7 +8607,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="463" spans="1:2">
+    <row r="463" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A463" s="15" t="s">
         <v>925</v>
       </c>
@@ -8615,7 +8615,7 @@
         <v>926</v>
       </c>
     </row>
-    <row r="464" spans="1:2">
+    <row r="464" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A464" s="15" t="s">
         <v>927</v>
       </c>
@@ -8623,7 +8623,7 @@
         <v>928</v>
       </c>
     </row>
-    <row r="465" spans="1:2">
+    <row r="465" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A465" s="15" t="s">
         <v>929</v>
       </c>
@@ -8631,7 +8631,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="466" spans="1:2">
+    <row r="466" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A466" s="15" t="s">
         <v>931</v>
       </c>
@@ -8639,7 +8639,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="467" spans="1:2">
+    <row r="467" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A467" s="15" t="s">
         <v>933</v>
       </c>
@@ -8647,7 +8647,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="468" spans="1:2">
+    <row r="468" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A468" s="15" t="s">
         <v>935</v>
       </c>
@@ -8655,7 +8655,7 @@
         <v>936</v>
       </c>
     </row>
-    <row r="469" spans="1:2">
+    <row r="469" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A469" s="15" t="s">
         <v>937</v>
       </c>
@@ -8663,7 +8663,7 @@
         <v>938</v>
       </c>
     </row>
-    <row r="470" spans="1:2">
+    <row r="470" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A470" s="15" t="s">
         <v>939</v>
       </c>
@@ -8671,7 +8671,7 @@
         <v>940</v>
       </c>
     </row>
-    <row r="471" spans="1:2">
+    <row r="471" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A471" s="15" t="s">
         <v>941</v>
       </c>
@@ -8679,7 +8679,7 @@
         <v>942</v>
       </c>
     </row>
-    <row r="472" spans="1:2">
+    <row r="472" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A472" s="15" t="s">
         <v>943</v>
       </c>
@@ -8687,7 +8687,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="473" spans="1:2">
+    <row r="473" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A473" s="15" t="s">
         <v>945</v>
       </c>
@@ -8695,7 +8695,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="474" spans="1:2">
+    <row r="474" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A474" s="15" t="s">
         <v>947</v>
       </c>
@@ -8703,7 +8703,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="475" spans="1:2">
+    <row r="475" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A475" s="15" t="s">
         <v>949</v>
       </c>
@@ -8711,7 +8711,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="476" spans="1:2">
+    <row r="476" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A476" s="15" t="s">
         <v>951</v>
       </c>
@@ -8719,7 +8719,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="477" spans="1:2">
+    <row r="477" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A477" s="15" t="s">
         <v>953</v>
       </c>
@@ -8727,7 +8727,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="478" spans="1:2">
+    <row r="478" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A478" s="15" t="s">
         <v>955</v>
       </c>
@@ -8735,7 +8735,7 @@
         <v>956</v>
       </c>
     </row>
-    <row r="479" spans="1:2">
+    <row r="479" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A479" s="15" t="s">
         <v>957</v>
       </c>
@@ -8743,7 +8743,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="480" spans="1:2">
+    <row r="480" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A480" s="15" t="s">
         <v>959</v>
       </c>
@@ -8751,7 +8751,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="481" spans="1:2">
+    <row r="481" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A481" s="15" t="s">
         <v>961</v>
       </c>
@@ -8759,7 +8759,7 @@
         <v>962</v>
       </c>
     </row>
-    <row r="482" spans="1:2">
+    <row r="482" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A482" s="15" t="s">
         <v>963</v>
       </c>
@@ -8767,7 +8767,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="483" spans="1:2">
+    <row r="483" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A483" s="15" t="s">
         <v>965</v>
       </c>
@@ -8775,7 +8775,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="484" spans="1:2">
+    <row r="484" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A484" s="15" t="s">
         <v>967</v>
       </c>
@@ -8783,7 +8783,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="485" spans="1:2">
+    <row r="485" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A485" s="15" t="s">
         <v>969</v>
       </c>
@@ -8791,7 +8791,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="486" spans="1:2">
+    <row r="486" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A486" s="15" t="s">
         <v>971</v>
       </c>
@@ -8799,7 +8799,7 @@
         <v>972</v>
       </c>
     </row>
-    <row r="487" spans="1:2">
+    <row r="487" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A487" s="15" t="s">
         <v>973</v>
       </c>
@@ -8807,7 +8807,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="488" spans="1:2">
+    <row r="488" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A488" s="15" t="s">
         <v>975</v>
       </c>
@@ -8815,7 +8815,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="489" spans="1:2">
+    <row r="489" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A489" s="15" t="s">
         <v>977</v>
       </c>
@@ -8823,7 +8823,7 @@
         <v>978</v>
       </c>
     </row>
-    <row r="490" spans="1:2">
+    <row r="490" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A490" s="15" t="s">
         <v>979</v>
       </c>
@@ -8831,7 +8831,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="491" spans="1:2">
+    <row r="491" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A491" s="15" t="s">
         <v>981</v>
       </c>
@@ -8839,7 +8839,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="492" spans="1:2">
+    <row r="492" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A492" s="15" t="s">
         <v>983</v>
       </c>
@@ -8847,7 +8847,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="493" spans="1:2">
+    <row r="493" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A493" s="15" t="s">
         <v>985</v>
       </c>
@@ -8855,7 +8855,7 @@
         <v>986</v>
       </c>
     </row>
-    <row r="494" spans="1:2">
+    <row r="494" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A494" s="15" t="s">
         <v>987</v>
       </c>
@@ -8863,7 +8863,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="495" spans="1:2">
+    <row r="495" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A495" s="15" t="s">
         <v>989</v>
       </c>
@@ -8871,7 +8871,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="496" spans="1:2">
+    <row r="496" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A496" s="15" t="s">
         <v>991</v>
       </c>
@@ -8879,7 +8879,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="497" spans="1:2">
+    <row r="497" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A497" s="15" t="s">
         <v>993</v>
       </c>
@@ -8887,7 +8887,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="498" spans="1:2">
+    <row r="498" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A498" s="15" t="s">
         <v>995</v>
       </c>
@@ -8895,7 +8895,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="499" spans="1:2">
+    <row r="499" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A499" s="15" t="s">
         <v>996</v>
       </c>
@@ -8903,7 +8903,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="500" spans="1:2">
+    <row r="500" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A500" s="15" t="s">
         <v>997</v>
       </c>
@@ -8911,7 +8911,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="501" spans="1:2">
+    <row r="501" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A501" s="15" t="s">
         <v>999</v>
       </c>
@@ -8919,7 +8919,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="502" spans="1:2">
+    <row r="502" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A502" s="15" t="s">
         <v>1001</v>
       </c>
@@ -8927,7 +8927,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="503" spans="1:2">
+    <row r="503" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A503" s="15" t="s">
         <v>1002</v>
       </c>
@@ -8935,7 +8935,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="504" spans="1:2">
+    <row r="504" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A504" s="15" t="s">
         <v>1003</v>
       </c>
@@ -8943,7 +8943,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="505" spans="1:2">
+    <row r="505" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A505" s="15" t="s">
         <v>1004</v>
       </c>
@@ -8951,7 +8951,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="506" spans="1:2">
+    <row r="506" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A506" s="15" t="s">
         <v>1005</v>
       </c>
@@ -8959,7 +8959,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="507" spans="1:2">
+    <row r="507" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A507" s="15" t="s">
         <v>1006</v>
       </c>
@@ -8967,7 +8967,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="508" spans="1:2">
+    <row r="508" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A508" s="15" t="s">
         <v>1007</v>
       </c>
@@ -8975,7 +8975,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="509" spans="1:2">
+    <row r="509" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A509" s="15" t="s">
         <v>1009</v>
       </c>
@@ -8983,7 +8983,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="510" spans="1:2">
+    <row r="510" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A510" s="15" t="s">
         <v>1011</v>
       </c>
@@ -8991,7 +8991,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="511" spans="1:2">
+    <row r="511" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A511" s="15" t="s">
         <v>1013</v>
       </c>
@@ -8999,7 +8999,7 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="512" spans="1:2">
+    <row r="512" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A512" s="15" t="s">
         <v>1015</v>
       </c>
@@ -9007,7 +9007,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="513" spans="1:2">
+    <row r="513" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A513" s="15" t="s">
         <v>1017</v>
       </c>
@@ -9015,7 +9015,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="514" spans="1:2">
+    <row r="514" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A514" s="15" t="s">
         <v>1019</v>
       </c>
@@ -9023,7 +9023,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="515" spans="1:2">
+    <row r="515" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A515" s="15" t="s">
         <v>1021</v>
       </c>
@@ -9031,7 +9031,7 @@
         <v>1022</v>
       </c>
     </row>
-    <row r="516" spans="1:2">
+    <row r="516" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A516" s="15" t="s">
         <v>1023</v>
       </c>
@@ -9039,7 +9039,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="517" spans="1:2">
+    <row r="517" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A517" s="15" t="s">
         <v>1025</v>
       </c>
@@ -9047,7 +9047,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="518" spans="1:2">
+    <row r="518" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A518" s="15" t="s">
         <v>1027</v>
       </c>
@@ -9055,7 +9055,7 @@
         <v>1028</v>
       </c>
     </row>
-    <row r="519" spans="1:2">
+    <row r="519" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A519" s="15" t="s">
         <v>1029</v>
       </c>
@@ -9063,7 +9063,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="520" spans="1:2">
+    <row r="520" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A520" s="15" t="s">
         <v>1031</v>
       </c>
@@ -9071,7 +9071,7 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="521" spans="1:2">
+    <row r="521" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A521" s="15" t="s">
         <v>1033</v>
       </c>
@@ -9079,7 +9079,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="522" spans="1:2">
+    <row r="522" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A522" s="15" t="s">
         <v>1035</v>
       </c>
@@ -9087,7 +9087,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="523" spans="1:2">
+    <row r="523" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A523" s="15" t="s">
         <v>1037</v>
       </c>
@@ -9095,7 +9095,7 @@
         <v>1038</v>
       </c>
     </row>
-    <row r="524" spans="1:2">
+    <row r="524" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A524" s="15" t="s">
         <v>1039</v>
       </c>
@@ -9103,7 +9103,7 @@
         <v>1040</v>
       </c>
     </row>
-    <row r="525" spans="1:2">
+    <row r="525" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A525" s="15" t="s">
         <v>1041</v>
       </c>
@@ -9111,7 +9111,7 @@
         <v>1042</v>
       </c>
     </row>
-    <row r="526" spans="1:2">
+    <row r="526" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A526" s="15" t="s">
         <v>1043</v>
       </c>
@@ -9119,7 +9119,7 @@
         <v>1044</v>
       </c>
     </row>
-    <row r="527" spans="1:2">
+    <row r="527" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A527" s="15" t="s">
         <v>1045</v>
       </c>
@@ -9127,7 +9127,7 @@
         <v>1046</v>
       </c>
     </row>
-    <row r="528" spans="1:2">
+    <row r="528" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A528" s="15" t="s">
         <v>1047</v>
       </c>
@@ -9135,7 +9135,7 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="529" spans="1:2">
+    <row r="529" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A529" s="15" t="s">
         <v>1049</v>
       </c>
@@ -9143,7 +9143,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="530" spans="1:2">
+    <row r="530" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A530" s="15" t="s">
         <v>1051</v>
       </c>
@@ -9151,7 +9151,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="531" spans="1:2">
+    <row r="531" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A531" s="15" t="s">
         <v>1053</v>
       </c>
@@ -9159,7 +9159,7 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="532" spans="1:2">
+    <row r="532" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A532" s="15" t="s">
         <v>1055</v>
       </c>
@@ -9167,7 +9167,7 @@
         <v>1056</v>
       </c>
     </row>
-    <row r="533" spans="1:2">
+    <row r="533" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A533" s="15" t="s">
         <v>1057</v>
       </c>
@@ -9175,7 +9175,7 @@
         <v>1058</v>
       </c>
     </row>
-    <row r="534" spans="1:2">
+    <row r="534" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A534" s="15" t="s">
         <v>1059</v>
       </c>
@@ -9183,7 +9183,7 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="535" spans="1:2">
+    <row r="535" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A535" s="15" t="s">
         <v>1061</v>
       </c>
@@ -9191,7 +9191,7 @@
         <v>1062</v>
       </c>
     </row>
-    <row r="536" spans="1:2">
+    <row r="536" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A536" s="15" t="s">
         <v>1063</v>
       </c>
@@ -9199,7 +9199,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="537" spans="1:2">
+    <row r="537" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A537" s="15" t="s">
         <v>1065</v>
       </c>
@@ -9366,13 +9366,36 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D3FC5878-77A8-48FD-8715-ADA8BEF3567E}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D3FC5878-77A8-48FD-8715-ADA8BEF3567E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="2257c94e-87cb-434f-959c-04cc32072b0e"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{35D2FD65-C73A-4E66-B225-1AA437D4F0DC}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{35D2FD65-C73A-4E66-B225-1AA437D4F0DC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C8EEEBB-2EE8-4B6B-BC68-3D68E7C9C46C}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C8EEEBB-2EE8-4B6B-BC68-3D68E7C9C46C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>